--- a/my.xlsx
+++ b/my.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git\newgit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4418A2C-FCF0-4FB9-9F75-7F749A8423F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71673312-3495-4739-AB45-81544CA81C05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -391,7 +391,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A7"/>
+      <selection activeCell="B1" sqref="B1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>

--- a/my.xlsx
+++ b/my.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git\newgit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71673312-3495-4739-AB45-81544CA81C05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416E93FF-FFBC-4890-A4ED-9DE796C4CEA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,6 +47,10 @@
   </si>
   <si>
     <t>7</t>
+  </si>
+  <si>
+    <t>master</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -400,7 +404,9 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
@@ -408,7 +414,9 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
@@ -416,7 +424,9 @@
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
@@ -424,7 +434,9 @@
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
@@ -432,7 +444,9 @@
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
@@ -440,7 +454,9 @@
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
@@ -448,7 +464,9 @@
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>

--- a/my.xlsx
+++ b/my.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git\newgit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71673312-3495-4739-AB45-81544CA81C05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B904471-B0E3-4DD2-970A-17292A12AF9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,6 +47,10 @@
   </si>
   <si>
     <t>7</t>
+  </si>
+  <si>
+    <t>newex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -391,7 +395,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B7"/>
+      <selection activeCell="C1" sqref="C1:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -401,7 +405,9 @@
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -409,7 +415,9 @@
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -417,7 +425,9 @@
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -425,7 +435,9 @@
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -433,7 +445,9 @@
         <v>4</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -441,7 +455,9 @@
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -449,7 +465,9 @@
         <v>6</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D7" s="1"/>
     </row>
   </sheetData>
